--- a/CH_020314_D.xlsx
+++ b/CH_020314_D.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="135" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1185" yWindow="135" windowWidth="25605" windowHeight="16065" tabRatio="594" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Histology" sheetId="3" r:id="rId3"/>
     <sheet name="Surgery" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="129">
   <si>
     <t>Mouse ID</t>
   </si>
@@ -62,9 +62,6 @@
     <t>General Info</t>
   </si>
   <si>
-    <t>Ra</t>
-  </si>
-  <si>
     <t>Vrest</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>EMX-Cre</t>
   </si>
   <si>
-    <t>Injected with AAV-ChR2.</t>
-  </si>
-  <si>
     <t>CH_020314_D</t>
   </si>
   <si>
@@ -150,6 +144,276 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>K-Gluconate 919 ul with DI H2O 31 ul</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>IV curve</t>
+  </si>
+  <si>
+    <t>2014_02_22_0000</t>
+  </si>
+  <si>
+    <t>2014_02_22_0001</t>
+  </si>
+  <si>
+    <t>LED 470 nm steps in current clamp. Thrshold at about 1.2 volts to the led.</t>
+  </si>
+  <si>
+    <t>2014_02_22_0002</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>LED 470 nm steps in Vclamp. Vhold = -60 mv. Nice response at 1 Volt, but spike threshold is basically at the same place…</t>
+  </si>
+  <si>
+    <t>2014_02_22_0004</t>
+  </si>
+  <si>
+    <t>2014_02_22_0005</t>
+  </si>
+  <si>
+    <t>2014_02_22_0006</t>
+  </si>
+  <si>
+    <t>LED 470 nm trains at 5 Hz. LED voltage = 1.1? Cell still has some run down by the end of the protocol…</t>
+  </si>
+  <si>
+    <t>2014_02_22_0007</t>
+  </si>
+  <si>
+    <t>2014_02_22_0008</t>
+  </si>
+  <si>
+    <t>2014_02_22_0009</t>
+  </si>
+  <si>
+    <t>LED 470 nm trains at 5 Hz. LED voltage = 1.05? Some response, but the cell clams up at the end. What gives? Vhold = -85.</t>
+  </si>
+  <si>
+    <t>LED 470 nm trains at 20 Hz. LED voltage = 1.1. Less run down than at 5 hz, and maybe even some facilitation. Vhold = -85</t>
+  </si>
+  <si>
+    <t>LED 470 nm trains at 20 Hz. LED voltage = 1.1. Vhold = -45 mv. Some sweeps have spikes that I'll need to omit.</t>
+  </si>
+  <si>
+    <t>LED 470 nm trains at 5 Hz. LED voltage = 1.1. Vhold = -45 mv.</t>
+  </si>
+  <si>
+    <t>LED 470 nm trains at 40 Hz. LED voltage = 1.1. Vhold = -85 mv.</t>
+  </si>
+  <si>
+    <t>2014_02_22_0010</t>
+  </si>
+  <si>
+    <t>LED 470 nm trains at 40 Hz. LED voltage = 1.1. Vhold = -85 mv. This is a repeat of _0009.</t>
+  </si>
+  <si>
+    <t>2014_02_22_0012</t>
+  </si>
+  <si>
+    <t>LED 470 nm trains at 40 Hz. LED voltage = 1.0. Vhold = -45 mv. Seems like some run down…</t>
+  </si>
+  <si>
+    <t>2014_02_22_0013</t>
+  </si>
+  <si>
+    <t>LED 470 nm trains at 20 Hz. LED voltage = 1.0. Vhold = -85 mv. For comparison with earlier files to assess cell stability.</t>
+  </si>
+  <si>
+    <t>2014_02_22_0014</t>
+  </si>
+  <si>
+    <t>LED 470 nm trains at 20 Hz. LED voltage = 0.95. Vhold = -45 mv. For comparison with earlier files to assess cell stability.</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vout = 1mv. Cell was about 283 um from pia. </t>
+  </si>
+  <si>
+    <t>IV curve. FS cell for sure. Unfortunately, this cell may be in the V1 injection site.</t>
+  </si>
+  <si>
+    <t>2014_02_22_0015</t>
+  </si>
+  <si>
+    <t>IV curve from a PY cell.</t>
+  </si>
+  <si>
+    <t>2014_02_22_0016</t>
+  </si>
+  <si>
+    <t>2014_02_22_0017</t>
+  </si>
+  <si>
+    <t>2014_02_22_0018</t>
+  </si>
+  <si>
+    <t>LED 470 nm steps. In Iclamp. Spikes at 4 volts to the led.</t>
+  </si>
+  <si>
+    <t>LED 470 nm steps. In Vclamp. Vhold = -60.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED 470 nm trains. 5 Hz. Vhold = -85 mV. </t>
+  </si>
+  <si>
+    <t>2014_02_22_0019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED 470 nm trains. 5 Hz. Vhold = -45 mV. </t>
+  </si>
+  <si>
+    <t>2014_02_22_0020</t>
+  </si>
+  <si>
+    <t>2014_02_22_0021</t>
+  </si>
+  <si>
+    <t>2014_02_22_0022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED 470 nm trains. 20 Hz. Vhold = -45 mV. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED 470 nm trains. 20 Hz. Vhold = -85 mV. </t>
+  </si>
+  <si>
+    <t>LED 470 nm trains. 20 Hz. Vhold = -85 mV. Lower LED voltage than the earlier files. LED voltage = 1.05 volts.</t>
+  </si>
+  <si>
+    <t>2014_02_22_0023</t>
+  </si>
+  <si>
+    <t>2014_02_22_0024</t>
+  </si>
+  <si>
+    <t>2014_02_22_0025</t>
+  </si>
+  <si>
+    <t>LED 470 nm trains. 20 Hz. Vhold = -45 mV. Lower LED voltage than the earlier files. LED voltage = 1.05 volts.</t>
+  </si>
+  <si>
+    <t>LED 470 nm trains. 5 Hz. Vhold = -85 mV. Lower LED voltage than the earlier files. LED voltage = 1.05 volts.</t>
+  </si>
+  <si>
+    <t>LED 470 nm trains. 5 Hz. Vhold = -45 mV. Lower LED voltage than the earlier files. LED voltage = 1.05 volts.</t>
+  </si>
+  <si>
+    <t>2014_02_22_0026</t>
+  </si>
+  <si>
+    <t>LED 470 nm trains. 40 Hz. Vhold = -45 mV. Lower LED voltage than the earlier files. LED voltage = 1.05 volts.</t>
+  </si>
+  <si>
+    <t>2014_02_22_0027</t>
+  </si>
+  <si>
+    <t>LED 470 nm trains. 40 Hz. Vhold = -85 mV. Lower LED voltage than the earlier files. LED voltage = 1.05 volts.</t>
+  </si>
+  <si>
+    <t>Vout = 2.4 mV. Cell was about 290 um from the pia.</t>
+  </si>
+  <si>
+    <t>2014_02_22_0028</t>
+  </si>
+  <si>
+    <t>IV curve, no average</t>
+  </si>
+  <si>
+    <t>2014_02_22_0029</t>
+  </si>
+  <si>
+    <t>2014_02_22_0030</t>
+  </si>
+  <si>
+    <t>2014_02_22_0031</t>
+  </si>
+  <si>
+    <t>2014_02_22_0032</t>
+  </si>
+  <si>
+    <t>LED 470 nm steps. No spikes even at high voltages.</t>
+  </si>
+  <si>
+    <t>LED 470 nm trains. 5 Hz. LED voltage 2.2. Vhold = -85 mV.</t>
+  </si>
+  <si>
+    <t>LED 470 nm trains. 5 Hz. LED voltage 2.2. Vhold = -45 mV.</t>
+  </si>
+  <si>
+    <t>2014_02_22_0033</t>
+  </si>
+  <si>
+    <t>2014_02_22_0034</t>
+  </si>
+  <si>
+    <t>2014_02_22_0035</t>
+  </si>
+  <si>
+    <t>2014_02_22_0036</t>
+  </si>
+  <si>
+    <t>2014_02_22_0037</t>
+  </si>
+  <si>
+    <t>2014_02_22_0038</t>
+  </si>
+  <si>
+    <t>LED 470 nm trains. 20 Hz. LED voltage 2.2. Vhold = -85 mV.</t>
+  </si>
+  <si>
+    <t>LED 470 nm trains. 20 Hz. LED voltage 2.2. Vhold = -45 mV.</t>
+  </si>
+  <si>
+    <t>LED 470 nm trains. 40 Hz. LED voltage 2.2. Vhold = -45 mV.</t>
+  </si>
+  <si>
+    <t>LED 470 nm trains. 40 Hz. LED voltage 2.2. Vhold = -85 mV.</t>
+  </si>
+  <si>
+    <t>LED 470 nm trains. 60 Hz. LED voltage 2.2. Vhold = -85 mV.</t>
+  </si>
+  <si>
+    <t>LED 470 nm trains. 60 Hz. LED voltage 2.2. Vhold = -45 mV.</t>
+  </si>
+  <si>
+    <t>2014_02_22_0039</t>
+  </si>
+  <si>
+    <t>2014_02_22_0040</t>
+  </si>
+  <si>
+    <t>LED 470 nm steps. No change in voltage. Just repeats of 2.2 volts so that I get a nice version of a single EPSC for the LED. Vhold = -85</t>
+  </si>
+  <si>
+    <t>LED 470 nm steps. No change in voltage. Just repeats of 2.2 volts so that I get a nice version of a single EPSC for the LED. Vhold = -45 mV</t>
+  </si>
+  <si>
+    <t>Nice expression of ChR2. I think that I recorded from 2 cells in 2 different HOA, and a third cell at the anterior margin of the injection site….</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>Cell was about 305 um from the pia. Vout = 7mV</t>
+  </si>
+  <si>
+    <t>4% pfa</t>
+  </si>
+  <si>
+    <t>Injected with AAV-ChR2. Physiology from a few neurons in HOA. Histology.</t>
   </si>
 </sst>
 </file>
@@ -688,7 +952,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -788,6 +1052,9 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1273,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="38.1" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1289,15 +1556,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1313,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1321,15 +1588,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="147.94999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="38.1" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -1357,14 +1624,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100:H100"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.125" style="21" customWidth="1"/>
@@ -1375,70 +1642,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
       <c r="G1" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="22"/>
+        <v>30</v>
+      </c>
+      <c r="H1" s="22">
+        <v>298</v>
+      </c>
     </row>
     <row r="2" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="24"/>
+        <v>30</v>
+      </c>
+      <c r="H2" s="24">
+        <v>310</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="42">
+        <v>34</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="47"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:8" ht="26.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:8" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>4</v>
@@ -1447,456 +1726,838 @@
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
-    </row>
-    <row r="7" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
+    </row>
+    <row r="7" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="E7" s="23">
+        <v>-77</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="37"/>
     </row>
     <row r="8" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="34">
+        <v>5</v>
+      </c>
       <c r="E8" s="23"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-    </row>
-    <row r="9" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
+      <c r="F8" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="37"/>
+    </row>
+    <row r="9" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="34">
+        <v>5</v>
+      </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="36"/>
-    </row>
-    <row r="10" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
+      <c r="F9" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
+    </row>
+    <row r="10" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="34">
+        <v>5</v>
+      </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
+      <c r="F10" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="34">
+        <v>5</v>
+      </c>
       <c r="E11" s="23"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
-    </row>
-    <row r="12" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
+      <c r="F11" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
+    </row>
+    <row r="12" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="34">
+        <v>5</v>
+      </c>
       <c r="E12" s="23"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
-    </row>
-    <row r="13" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
+      <c r="F12" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
+    </row>
+    <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="34">
+        <v>5</v>
+      </c>
       <c r="E13" s="23"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
-    </row>
-    <row r="14" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
+      <c r="F13" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
+    </row>
+    <row r="14" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="34">
+        <v>5</v>
+      </c>
       <c r="E14" s="23"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36"/>
-    </row>
-    <row r="15" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
+      <c r="F14" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
+    </row>
+    <row r="15" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="34">
+        <v>5</v>
+      </c>
       <c r="E15" s="23"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
-    </row>
-    <row r="16" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
+      <c r="F15" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
+    </row>
+    <row r="16" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="34">
+        <v>5</v>
+      </c>
       <c r="E16" s="23"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
+      <c r="F16" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="34">
+        <v>5</v>
+      </c>
       <c r="E17" s="23"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-    </row>
-    <row r="18" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
+      <c r="F17" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
+    </row>
+    <row r="18" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="34">
+        <v>5</v>
+      </c>
       <c r="E18" s="23"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-    </row>
-    <row r="19" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
+      <c r="F18" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="36"/>
+      <c r="H18" s="37"/>
+    </row>
+    <row r="19" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="34">
+        <v>5</v>
+      </c>
       <c r="E19" s="23"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
+      <c r="F19" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
     </row>
     <row r="20" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
-    </row>
-    <row r="21" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="23"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="36"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
     </row>
     <row r="22" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
+      <c r="A22" s="3">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="5">
+        <v>4</v>
+      </c>
+      <c r="E22" s="23">
+        <v>-75</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="36"/>
+      <c r="H22" s="37"/>
     </row>
     <row r="23" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
+      <c r="A23" s="3">
+        <v>2</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="34">
+        <v>4</v>
+      </c>
       <c r="E23" s="23"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
+      <c r="F23" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="36"/>
+      <c r="H23" s="37"/>
     </row>
     <row r="24" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
+      <c r="A24" s="3">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="34">
+        <v>4</v>
+      </c>
       <c r="E24" s="23"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
+      <c r="F24" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="36"/>
+      <c r="H24" s="37"/>
     </row>
     <row r="25" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
+      <c r="A25" s="3">
+        <v>2</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="34">
+        <v>4</v>
+      </c>
       <c r="E25" s="23"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
+      <c r="F25" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
+      <c r="A26" s="3">
+        <v>2</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="34">
+        <v>4</v>
+      </c>
       <c r="E26" s="23"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36"/>
+      <c r="F26" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
     </row>
     <row r="27" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
+      <c r="A27" s="3">
+        <v>2</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="34">
+        <v>4</v>
+      </c>
       <c r="E27" s="23"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="36"/>
+      <c r="F27" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
+      <c r="A28" s="3">
+        <v>2</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="34">
+        <v>4</v>
+      </c>
       <c r="E28" s="23"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36"/>
-    </row>
-    <row r="29" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
+      <c r="F28" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37"/>
+    </row>
+    <row r="29" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>2</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="34">
+        <v>4</v>
+      </c>
       <c r="E29" s="23"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="36"/>
+      <c r="F29" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="36"/>
+      <c r="H29" s="37"/>
     </row>
     <row r="30" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
+      <c r="A30" s="3">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="34">
+        <v>4</v>
+      </c>
       <c r="E30" s="23"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="36"/>
+      <c r="F30" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37"/>
     </row>
     <row r="31" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
+      <c r="A31" s="3">
+        <v>2</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="34">
+        <v>4</v>
+      </c>
       <c r="E31" s="23"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36"/>
+      <c r="F31" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
+      <c r="A32" s="3">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="34">
+        <v>4</v>
+      </c>
       <c r="E32" s="23"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36"/>
+      <c r="F32" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="36"/>
+      <c r="H32" s="37"/>
     </row>
     <row r="33" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
+      <c r="A33" s="3">
+        <v>2</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="34">
+        <v>4</v>
+      </c>
       <c r="E33" s="23"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="36"/>
+      <c r="F33" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33" s="36"/>
+      <c r="H33" s="37"/>
     </row>
     <row r="34" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
+      <c r="A34" s="3">
+        <v>2</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="34">
+        <v>4</v>
+      </c>
       <c r="E34" s="23"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="36"/>
+      <c r="F34" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="36"/>
+      <c r="H34" s="37"/>
     </row>
     <row r="35" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="36"/>
-    </row>
-    <row r="36" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="36"/>
+      <c r="H35" s="37"/>
+    </row>
+    <row r="36" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
       <c r="E36" s="23"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="36"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="37"/>
     </row>
     <row r="37" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="A37" s="3">
+        <v>3</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D37" s="5"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="36"/>
+      <c r="E37" s="23">
+        <v>-76</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="36"/>
+      <c r="H37" s="37"/>
     </row>
     <row r="38" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="A38" s="3">
+        <v>3</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D38" s="5"/>
       <c r="E38" s="23"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="36"/>
+      <c r="F38" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="36"/>
+      <c r="H38" s="37"/>
     </row>
     <row r="39" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="A39" s="3">
+        <v>3</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="D39" s="5"/>
       <c r="E39" s="23"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="36"/>
+      <c r="F39" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="36"/>
+      <c r="H39" s="37"/>
     </row>
     <row r="40" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="A40" s="3">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D40" s="5"/>
       <c r="E40" s="23"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36"/>
+      <c r="F40" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="G40" s="36"/>
+      <c r="H40" s="37"/>
     </row>
     <row r="41" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="A41" s="3">
+        <v>3</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D41" s="5"/>
       <c r="E41" s="23"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="36"/>
+      <c r="F41" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" s="36"/>
+      <c r="H41" s="37"/>
     </row>
     <row r="42" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="A42" s="3">
+        <v>3</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D42" s="5"/>
       <c r="E42" s="23"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="36"/>
+      <c r="F42" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" s="36"/>
+      <c r="H42" s="37"/>
     </row>
     <row r="43" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="A43" s="3">
+        <v>3</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D43" s="5"/>
       <c r="E43" s="23"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="36"/>
+      <c r="F43" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43" s="36"/>
+      <c r="H43" s="37"/>
     </row>
     <row r="44" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="A44" s="3">
+        <v>3</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D44" s="5"/>
       <c r="E44" s="23"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="36"/>
+      <c r="F44" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="G44" s="36"/>
+      <c r="H44" s="37"/>
     </row>
     <row r="45" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="A45" s="3">
+        <v>3</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D45" s="5"/>
       <c r="E45" s="23"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="36"/>
+      <c r="F45" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="G45" s="36"/>
+      <c r="H45" s="37"/>
     </row>
     <row r="46" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="A46" s="3">
+        <v>3</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D46" s="5"/>
       <c r="E46" s="23"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="36"/>
+      <c r="F46" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="G46" s="36"/>
+      <c r="H46" s="37"/>
     </row>
     <row r="47" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="A47" s="3">
+        <v>3</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D47" s="5"/>
       <c r="E47" s="23"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="36"/>
-    </row>
-    <row r="48" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+      <c r="F47" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47" s="36"/>
+      <c r="H47" s="37"/>
+    </row>
+    <row r="48" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>3</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D48" s="5"/>
       <c r="E48" s="23"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="36"/>
-    </row>
-    <row r="49" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="F48" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="G48" s="36"/>
+      <c r="H48" s="37"/>
+    </row>
+    <row r="49" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>3</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="D49" s="5"/>
       <c r="E49" s="23"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="36"/>
+      <c r="F49" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="G49" s="36"/>
+      <c r="H49" s="37"/>
     </row>
     <row r="50" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="36"/>
+      <c r="E50" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F50" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" s="36"/>
+      <c r="H50" s="37"/>
     </row>
     <row r="51" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
@@ -1904,9 +2565,9 @@
       <c r="C51" s="4"/>
       <c r="D51" s="5"/>
       <c r="E51" s="23"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="36"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="37"/>
     </row>
     <row r="52" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
@@ -1914,9 +2575,9 @@
       <c r="C52" s="4"/>
       <c r="D52" s="5"/>
       <c r="E52" s="23"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="36"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="37"/>
     </row>
     <row r="53" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
@@ -1924,9 +2585,9 @@
       <c r="C53" s="4"/>
       <c r="D53" s="5"/>
       <c r="E53" s="23"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="36"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="37"/>
     </row>
     <row r="54" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
@@ -1934,9 +2595,9 @@
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
       <c r="E54" s="23"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="36"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="37"/>
     </row>
     <row r="55" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
@@ -1944,9 +2605,9 @@
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
       <c r="E55" s="23"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="36"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="37"/>
     </row>
     <row r="56" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
@@ -1954,9 +2615,9 @@
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
       <c r="E56" s="23"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="36"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="37"/>
     </row>
     <row r="57" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
@@ -1964,9 +2625,9 @@
       <c r="C57" s="4"/>
       <c r="D57" s="5"/>
       <c r="E57" s="23"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="36"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="37"/>
     </row>
     <row r="58" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
@@ -1974,9 +2635,9 @@
       <c r="C58" s="4"/>
       <c r="D58" s="5"/>
       <c r="E58" s="23"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="36"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="37"/>
     </row>
     <row r="59" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
@@ -1984,9 +2645,9 @@
       <c r="C59" s="4"/>
       <c r="D59" s="5"/>
       <c r="E59" s="23"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="36"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="37"/>
     </row>
     <row r="60" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
@@ -1994,9 +2655,9 @@
       <c r="C60" s="4"/>
       <c r="D60" s="5"/>
       <c r="E60" s="23"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="36"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="37"/>
     </row>
     <row r="61" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
@@ -2004,9 +2665,9 @@
       <c r="C61" s="4"/>
       <c r="D61" s="5"/>
       <c r="E61" s="23"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="36"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="37"/>
     </row>
     <row r="62" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
@@ -2014,9 +2675,9 @@
       <c r="C62" s="4"/>
       <c r="D62" s="5"/>
       <c r="E62" s="23"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="36"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="37"/>
     </row>
     <row r="63" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
@@ -2024,9 +2685,9 @@
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
       <c r="E63" s="23"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="36"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="37"/>
     </row>
     <row r="64" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
@@ -2034,9 +2695,9 @@
       <c r="C64" s="4"/>
       <c r="D64" s="5"/>
       <c r="E64" s="23"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="36"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="37"/>
     </row>
     <row r="65" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
@@ -2044,9 +2705,9 @@
       <c r="C65" s="4"/>
       <c r="D65" s="5"/>
       <c r="E65" s="23"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="36"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="37"/>
     </row>
     <row r="66" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
@@ -2054,9 +2715,9 @@
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
       <c r="E66" s="23"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="36"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="37"/>
     </row>
     <row r="67" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
@@ -2064,9 +2725,9 @@
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
       <c r="E67" s="23"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="36"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="37"/>
     </row>
     <row r="68" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
@@ -2074,9 +2735,9 @@
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
       <c r="E68" s="23"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="36"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="37"/>
     </row>
     <row r="69" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
@@ -2084,9 +2745,9 @@
       <c r="C69" s="4"/>
       <c r="D69" s="5"/>
       <c r="E69" s="23"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="36"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="37"/>
     </row>
     <row r="70" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
@@ -2094,9 +2755,9 @@
       <c r="C70" s="4"/>
       <c r="D70" s="5"/>
       <c r="E70" s="23"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="36"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="37"/>
     </row>
     <row r="71" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -2104,9 +2765,9 @@
       <c r="C71" s="4"/>
       <c r="D71" s="5"/>
       <c r="E71" s="23"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="36"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="37"/>
     </row>
     <row r="72" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
@@ -2114,9 +2775,9 @@
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
       <c r="E72" s="23"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="36"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="37"/>
     </row>
     <row r="73" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
@@ -2124,9 +2785,9 @@
       <c r="C73" s="4"/>
       <c r="D73" s="5"/>
       <c r="E73" s="23"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="36"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="37"/>
     </row>
     <row r="74" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
@@ -2134,9 +2795,9 @@
       <c r="C74" s="4"/>
       <c r="D74" s="5"/>
       <c r="E74" s="23"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="36"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="37"/>
     </row>
     <row r="75" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
@@ -2144,9 +2805,9 @@
       <c r="C75" s="4"/>
       <c r="D75" s="5"/>
       <c r="E75" s="23"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="36"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="37"/>
     </row>
     <row r="76" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
@@ -2154,9 +2815,9 @@
       <c r="C76" s="4"/>
       <c r="D76" s="5"/>
       <c r="E76" s="23"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="36"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="37"/>
     </row>
     <row r="77" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
@@ -2164,9 +2825,9 @@
       <c r="C77" s="4"/>
       <c r="D77" s="5"/>
       <c r="E77" s="23"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="36"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="37"/>
     </row>
     <row r="78" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
@@ -2174,9 +2835,9 @@
       <c r="C78" s="4"/>
       <c r="D78" s="5"/>
       <c r="E78" s="23"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="35"/>
-      <c r="H78" s="36"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="37"/>
     </row>
     <row r="79" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
@@ -2184,9 +2845,9 @@
       <c r="C79" s="4"/>
       <c r="D79" s="5"/>
       <c r="E79" s="23"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="36"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="37"/>
     </row>
     <row r="80" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
@@ -2194,9 +2855,9 @@
       <c r="C80" s="4"/>
       <c r="D80" s="5"/>
       <c r="E80" s="23"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="36"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="37"/>
     </row>
     <row r="81" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
@@ -2204,9 +2865,9 @@
       <c r="C81" s="4"/>
       <c r="D81" s="5"/>
       <c r="E81" s="23"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="36"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="37"/>
     </row>
     <row r="82" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
@@ -2214,9 +2875,9 @@
       <c r="C82" s="4"/>
       <c r="D82" s="5"/>
       <c r="E82" s="23"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="36"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="37"/>
     </row>
     <row r="83" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
@@ -2224,9 +2885,9 @@
       <c r="C83" s="4"/>
       <c r="D83" s="5"/>
       <c r="E83" s="23"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="36"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="37"/>
     </row>
     <row r="84" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
@@ -2234,9 +2895,9 @@
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
       <c r="E84" s="23"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="36"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="37"/>
     </row>
     <row r="85" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
@@ -2244,9 +2905,9 @@
       <c r="C85" s="4"/>
       <c r="D85" s="5"/>
       <c r="E85" s="23"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="36"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="37"/>
     </row>
     <row r="86" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
@@ -2254,9 +2915,9 @@
       <c r="C86" s="4"/>
       <c r="D86" s="5"/>
       <c r="E86" s="23"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="36"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="37"/>
     </row>
     <row r="87" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
@@ -2264,9 +2925,9 @@
       <c r="C87" s="4"/>
       <c r="D87" s="5"/>
       <c r="E87" s="23"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="36"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="37"/>
     </row>
     <row r="88" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
@@ -2274,9 +2935,9 @@
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
       <c r="E88" s="23"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="36"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="37"/>
     </row>
     <row r="89" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
@@ -2284,9 +2945,9 @@
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
       <c r="E89" s="23"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="36"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="37"/>
     </row>
     <row r="90" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
@@ -2294,9 +2955,9 @@
       <c r="C90" s="4"/>
       <c r="D90" s="5"/>
       <c r="E90" s="23"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="36"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="37"/>
     </row>
     <row r="91" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
@@ -2304,9 +2965,9 @@
       <c r="C91" s="4"/>
       <c r="D91" s="5"/>
       <c r="E91" s="23"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="36"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="37"/>
     </row>
     <row r="92" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
@@ -2314,9 +2975,9 @@
       <c r="C92" s="4"/>
       <c r="D92" s="5"/>
       <c r="E92" s="23"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="36"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="37"/>
     </row>
     <row r="93" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
@@ -2324,9 +2985,9 @@
       <c r="C93" s="4"/>
       <c r="D93" s="5"/>
       <c r="E93" s="23"/>
-      <c r="F93" s="34"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="36"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="37"/>
     </row>
     <row r="94" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
@@ -2334,9 +2995,9 @@
       <c r="C94" s="4"/>
       <c r="D94" s="5"/>
       <c r="E94" s="23"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="36"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="37"/>
     </row>
     <row r="95" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
@@ -2344,9 +3005,9 @@
       <c r="C95" s="4"/>
       <c r="D95" s="5"/>
       <c r="E95" s="23"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="36"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="37"/>
     </row>
     <row r="96" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
@@ -2354,9 +3015,9 @@
       <c r="C96" s="4"/>
       <c r="D96" s="5"/>
       <c r="E96" s="23"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="36"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="37"/>
     </row>
     <row r="97" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
@@ -2364,9 +3025,9 @@
       <c r="C97" s="4"/>
       <c r="D97" s="5"/>
       <c r="E97" s="23"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="36"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="37"/>
     </row>
     <row r="98" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
@@ -2374,9 +3035,9 @@
       <c r="C98" s="4"/>
       <c r="D98" s="5"/>
       <c r="E98" s="23"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="36"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="37"/>
     </row>
     <row r="99" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
@@ -2384,9 +3045,9 @@
       <c r="C99" s="4"/>
       <c r="D99" s="5"/>
       <c r="E99" s="23"/>
-      <c r="F99" s="34"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="36"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="37"/>
     </row>
     <row r="100" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
@@ -2394,9 +3055,9 @@
       <c r="C100" s="4"/>
       <c r="D100" s="5"/>
       <c r="E100" s="23"/>
-      <c r="F100" s="34"/>
-      <c r="G100" s="35"/>
-      <c r="H100" s="36"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="37"/>
     </row>
     <row r="101" spans="1:8" ht="39" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -2521,8 +3182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="36" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2535,79 +3196,87 @@
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="3" spans="1:5" ht="135.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
+        <v>18</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
     </row>
     <row r="4" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
+        <v>28</v>
+      </c>
+      <c r="B4" s="65">
+        <v>300</v>
+      </c>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
     </row>
     <row r="5" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
+        <v>19</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
     </row>
     <row r="6" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
+        <v>17</v>
+      </c>
+      <c r="B6" s="61">
+        <v>2</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
     </row>
     <row r="7" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66"/>
+        <v>31</v>
+      </c>
+      <c r="B7" s="65">
+        <v>6</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
     </row>
     <row r="8" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="63"/>
+        <v>29</v>
+      </c>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2635,7 +3304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:G5"/>
     </sheetView>
   </sheetViews>
@@ -2648,180 +3317,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="69"/>
+      <c r="A1" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="78">
+        <v>23</v>
+      </c>
+      <c r="B2" s="79">
         <v>41673</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
+        <v>24</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:7" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
+      <c r="B4" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
     </row>
     <row r="5" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
+        <v>25</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
     </row>
     <row r="6" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="69"/>
+      <c r="A7" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="75"/>
+        <v>23</v>
+      </c>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="76"/>
     </row>
     <row r="9" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+        <v>24</v>
+      </c>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:7" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="77"/>
+        <v>25</v>
+      </c>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
     </row>
     <row r="12" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="69"/>
+      <c r="A14" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="70"/>
     </row>
     <row r="15" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="71"/>
+        <v>23</v>
+      </c>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="72"/>
     </row>
     <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="61"/>
+        <v>24</v>
+      </c>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="62"/>
     </row>
     <row r="17" spans="1:7" ht="113.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="62"/>
     </row>
     <row r="18" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="73"/>
+        <v>25</v>
+      </c>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="74"/>
     </row>
     <row r="19" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:7" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
